--- a/Document/Testcase/Player_SystemTest.xlsx
+++ b/Document/Testcase/Player_SystemTest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\gitcapstonedocument\LH\Document\systemTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Document\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Login with Account" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Create Multi betting game" sheetId="18" r:id="rId18"/>
     <sheet name="View list of game participant" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +42,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,13 +88,13 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -134,13 +134,13 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -180,13 +180,13 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -226,13 +226,13 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -272,13 +272,13 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -318,13 +318,13 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -364,13 +364,13 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -410,13 +410,13 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -456,13 +456,13 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -502,13 +502,13 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -548,13 +548,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -572,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -594,13 +594,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -618,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -640,13 +640,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -664,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -686,13 +686,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -710,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -732,13 +732,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -756,7 +756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -778,13 +778,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -824,13 +824,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -870,13 +870,13 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>Chinh Vu Cong</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="1" shapeId="0">
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +916,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="97">
   <si>
     <t>Module Code</t>
   </si>
@@ -1303,11 +1303,14 @@
   <si>
     <t>OBJECT</t>
   </si>
+  <si>
+    <t>Paased</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1810,8 +1813,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1843,7 +1846,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1885,7 +1894,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1932,7 +1947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2226,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2426,7 +2447,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2438,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2676,7 +2697,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2687,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2953,7 +2974,7 @@
     <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2965,10 +2986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3204,7 +3225,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3216,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3455,7 +3476,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3466,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3748,7 +3769,7 @@
     <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3759,7 +3780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4015,7 +4036,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4026,7 +4047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -4278,7 +4299,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4289,10 +4310,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -4557,7 +4578,7 @@
     <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4568,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -4837,7 +4858,7 @@
     <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4848,10 +4869,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -5099,7 +5120,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5110,7 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,7 +5383,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5373,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5638,7 +5659,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5649,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5899,7 +5920,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5910,11 +5931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6142,10 +6163,10 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="15" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I12" s="17">
         <v>43074</v>
@@ -6189,7 +6210,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6200,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6450,7 +6471,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6461,7 +6482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6738,7 +6759,7 @@
     <mergeCell ref="C11:J11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6749,7 +6770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6988,7 +7009,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6999,7 +7020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7239,7 +7260,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
